--- a/stock/data/F&F.xlsx
+++ b/stock/data/F&F.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G707"/>
+  <dimension ref="A1:G740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16706,10 +16706,769 @@
         <v>70300</v>
       </c>
       <c r="F707" t="n">
-        <v>97355</v>
+        <v>97398</v>
       </c>
       <c r="G707" t="n">
         <v>-1.95258019525802</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B708" t="n">
+        <v>71300</v>
+      </c>
+      <c r="C708" t="n">
+        <v>77400</v>
+      </c>
+      <c r="D708" t="n">
+        <v>70300</v>
+      </c>
+      <c r="E708" t="n">
+        <v>76500</v>
+      </c>
+      <c r="F708" t="n">
+        <v>460680</v>
+      </c>
+      <c r="G708" t="n">
+        <v>8.819345661450924</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B709" t="n">
+        <v>76700</v>
+      </c>
+      <c r="C709" t="n">
+        <v>77300</v>
+      </c>
+      <c r="D709" t="n">
+        <v>74600</v>
+      </c>
+      <c r="E709" t="n">
+        <v>74600</v>
+      </c>
+      <c r="F709" t="n">
+        <v>164662</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-2.483660130718954</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B710" t="n">
+        <v>74200</v>
+      </c>
+      <c r="C710" t="n">
+        <v>75300</v>
+      </c>
+      <c r="D710" t="n">
+        <v>72500</v>
+      </c>
+      <c r="E710" t="n">
+        <v>73800</v>
+      </c>
+      <c r="F710" t="n">
+        <v>160529</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-1.072386058981233</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B711" t="n">
+        <v>74700</v>
+      </c>
+      <c r="C711" t="n">
+        <v>75400</v>
+      </c>
+      <c r="D711" t="n">
+        <v>71900</v>
+      </c>
+      <c r="E711" t="n">
+        <v>72900</v>
+      </c>
+      <c r="F711" t="n">
+        <v>131277</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-1.219512195121951</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B712" t="n">
+        <v>71600</v>
+      </c>
+      <c r="C712" t="n">
+        <v>73800</v>
+      </c>
+      <c r="D712" t="n">
+        <v>71400</v>
+      </c>
+      <c r="E712" t="n">
+        <v>71600</v>
+      </c>
+      <c r="F712" t="n">
+        <v>79249</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-1.783264746227709</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B713" t="n">
+        <v>71400</v>
+      </c>
+      <c r="C713" t="n">
+        <v>71900</v>
+      </c>
+      <c r="D713" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E713" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F713" t="n">
+        <v>106782</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-2.094972067039106</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B714" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C714" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D714" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E714" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F714" t="n">
+        <v>155465</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-2.853067047075606</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B715" t="n">
+        <v>67100</v>
+      </c>
+      <c r="C715" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D715" t="n">
+        <v>66000</v>
+      </c>
+      <c r="E715" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F715" t="n">
+        <v>209712</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-2.055800293685756</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B716" t="n">
+        <v>66600</v>
+      </c>
+      <c r="C716" t="n">
+        <v>67100</v>
+      </c>
+      <c r="D716" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E716" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F716" t="n">
+        <v>397626</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-5.847076461769116</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B717" t="n">
+        <v>61900</v>
+      </c>
+      <c r="C717" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D717" t="n">
+        <v>61700</v>
+      </c>
+      <c r="E717" t="n">
+        <v>62100</v>
+      </c>
+      <c r="F717" t="n">
+        <v>153628</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-1.114649681528662</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B718" t="n">
+        <v>61100</v>
+      </c>
+      <c r="C718" t="n">
+        <v>63100</v>
+      </c>
+      <c r="D718" t="n">
+        <v>61100</v>
+      </c>
+      <c r="E718" t="n">
+        <v>62200</v>
+      </c>
+      <c r="F718" t="n">
+        <v>106589</v>
+      </c>
+      <c r="G718" t="n">
+        <v>0.1610305958132045</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B719" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C719" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D719" t="n">
+        <v>62300</v>
+      </c>
+      <c r="E719" t="n">
+        <v>65500</v>
+      </c>
+      <c r="F719" t="n">
+        <v>331977</v>
+      </c>
+      <c r="G719" t="n">
+        <v>5.305466237942122</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B720" t="n">
+        <v>65400</v>
+      </c>
+      <c r="C720" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D720" t="n">
+        <v>64800</v>
+      </c>
+      <c r="E720" t="n">
+        <v>65300</v>
+      </c>
+      <c r="F720" t="n">
+        <v>74776</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-0.3053435114503817</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B721" t="n">
+        <v>64600</v>
+      </c>
+      <c r="C721" t="n">
+        <v>65500</v>
+      </c>
+      <c r="D721" t="n">
+        <v>63200</v>
+      </c>
+      <c r="E721" t="n">
+        <v>63400</v>
+      </c>
+      <c r="F721" t="n">
+        <v>82484</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-2.909647779479326</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B722" t="n">
+        <v>64400</v>
+      </c>
+      <c r="C722" t="n">
+        <v>67500</v>
+      </c>
+      <c r="D722" t="n">
+        <v>64400</v>
+      </c>
+      <c r="E722" t="n">
+        <v>66000</v>
+      </c>
+      <c r="F722" t="n">
+        <v>172770</v>
+      </c>
+      <c r="G722" t="n">
+        <v>4.100946372239748</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B723" t="n">
+        <v>66100</v>
+      </c>
+      <c r="C723" t="n">
+        <v>66600</v>
+      </c>
+      <c r="D723" t="n">
+        <v>65400</v>
+      </c>
+      <c r="E723" t="n">
+        <v>65700</v>
+      </c>
+      <c r="F723" t="n">
+        <v>70812</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B724" t="n">
+        <v>66300</v>
+      </c>
+      <c r="C724" t="n">
+        <v>66600</v>
+      </c>
+      <c r="D724" t="n">
+        <v>64700</v>
+      </c>
+      <c r="E724" t="n">
+        <v>64900</v>
+      </c>
+      <c r="F724" t="n">
+        <v>109752</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-1.21765601217656</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B725" t="n">
+        <v>64300</v>
+      </c>
+      <c r="C725" t="n">
+        <v>64900</v>
+      </c>
+      <c r="D725" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E725" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F725" t="n">
+        <v>62946</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-1.232665639445301</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B726" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C726" t="n">
+        <v>64700</v>
+      </c>
+      <c r="D726" t="n">
+        <v>63300</v>
+      </c>
+      <c r="E726" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F726" t="n">
+        <v>49764</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-0.15600624024961</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B727" t="n">
+        <v>64600</v>
+      </c>
+      <c r="C727" t="n">
+        <v>66200</v>
+      </c>
+      <c r="D727" t="n">
+        <v>64500</v>
+      </c>
+      <c r="E727" t="n">
+        <v>66000</v>
+      </c>
+      <c r="F727" t="n">
+        <v>77849</v>
+      </c>
+      <c r="G727" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B728" t="n">
+        <v>66000</v>
+      </c>
+      <c r="C728" t="n">
+        <v>66400</v>
+      </c>
+      <c r="D728" t="n">
+        <v>64900</v>
+      </c>
+      <c r="E728" t="n">
+        <v>65900</v>
+      </c>
+      <c r="F728" t="n">
+        <v>95150</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-0.1515151515151515</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B729" t="n">
+        <v>66200</v>
+      </c>
+      <c r="C729" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D729" t="n">
+        <v>66200</v>
+      </c>
+      <c r="E729" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F729" t="n">
+        <v>291286</v>
+      </c>
+      <c r="G729" t="n">
+        <v>6.22154779969651</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B730" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C730" t="n">
+        <v>73500</v>
+      </c>
+      <c r="D730" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E730" t="n">
+        <v>72800</v>
+      </c>
+      <c r="F730" t="n">
+        <v>277879</v>
+      </c>
+      <c r="G730" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B731" t="n">
+        <v>72900</v>
+      </c>
+      <c r="C731" t="n">
+        <v>73100</v>
+      </c>
+      <c r="D731" t="n">
+        <v>70600</v>
+      </c>
+      <c r="E731" t="n">
+        <v>70900</v>
+      </c>
+      <c r="F731" t="n">
+        <v>93986</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-2.60989010989011</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B732" t="n">
+        <v>71200</v>
+      </c>
+      <c r="C732" t="n">
+        <v>71600</v>
+      </c>
+      <c r="D732" t="n">
+        <v>70100</v>
+      </c>
+      <c r="E732" t="n">
+        <v>71600</v>
+      </c>
+      <c r="F732" t="n">
+        <v>77983</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0.9873060648801129</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B733" t="n">
+        <v>71200</v>
+      </c>
+      <c r="C733" t="n">
+        <v>71800</v>
+      </c>
+      <c r="D733" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E733" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F733" t="n">
+        <v>87515</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-2.23463687150838</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B734" t="n">
+        <v>70600</v>
+      </c>
+      <c r="C734" t="n">
+        <v>72500</v>
+      </c>
+      <c r="D734" t="n">
+        <v>69700</v>
+      </c>
+      <c r="E734" t="n">
+        <v>70100</v>
+      </c>
+      <c r="F734" t="n">
+        <v>94313</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B735" t="n">
+        <v>70100</v>
+      </c>
+      <c r="C735" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D735" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E735" t="n">
+        <v>67800</v>
+      </c>
+      <c r="F735" t="n">
+        <v>110710</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-3.281027104136947</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B736" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C736" t="n">
+        <v>68400</v>
+      </c>
+      <c r="D736" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E736" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F736" t="n">
+        <v>86721</v>
+      </c>
+      <c r="G736" t="n">
+        <v>0.2949852507374631</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B737" t="n">
+        <v>68900</v>
+      </c>
+      <c r="C737" t="n">
+        <v>69700</v>
+      </c>
+      <c r="D737" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E737" t="n">
+        <v>67800</v>
+      </c>
+      <c r="F737" t="n">
+        <v>71418</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-0.2941176470588235</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B738" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C738" t="n">
+        <v>69300</v>
+      </c>
+      <c r="D738" t="n">
+        <v>67200</v>
+      </c>
+      <c r="E738" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F738" t="n">
+        <v>58227</v>
+      </c>
+      <c r="G738" t="n">
+        <v>0.1474926253687316</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B739" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C739" t="n">
+        <v>68800</v>
+      </c>
+      <c r="D739" t="n">
+        <v>66500</v>
+      </c>
+      <c r="E739" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F739" t="n">
+        <v>88288</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-1.620029455081002</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B740" t="n">
+        <v>66200</v>
+      </c>
+      <c r="C740" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D740" t="n">
+        <v>65800</v>
+      </c>
+      <c r="E740" t="n">
+        <v>66700</v>
+      </c>
+      <c r="F740" t="n">
+        <v>74136</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-0.1497005988023952</v>
       </c>
     </row>
   </sheetData>
